--- a/my_java/src/main/resources/register.xlsx
+++ b/my_java/src/main/resources/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\auto_test\my_java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426EE490-9D8A-4D71-AFC7-13A35C46758A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0A2A9-5FFA-42BA-A380-FD4DFD29136E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,30 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码长度为8-16个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次输入的密码不一样，请重新输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsNegative(是否为正向用例)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,7 +99,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号格式不正确</t>
+    <t>{"phone_info":"手机号不能为空", "pwd_info":"密码不能为空", "pwd_confirm_info":"", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"手机号格式不正确", "pwd_info":"密码不能为空", "pwd_confirm_info":"", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"", "pwd_info":"密码不能为空", "pwd_confirm_info":"", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"", "pwd_info":"密码长度为8-16个字符", "pwd_confirm_info":"两次输入的密码不一样，请重新输入", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"", "pwd_info":"", "pwd_confirm_info":"两次输入的密码不一样，请重新输入", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"", "pwd_info":"", "pwd_confirm_info":"", "pin_info":"验证码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"", "pwd_info":"", "pwd_confirm_info":"", "pin_info":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -166,19 +167,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,191 +478,190 @@
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1234567</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1234567</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8888</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>18428286666</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6666</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D5">
-        <v>1234567</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D7">
-        <v>12345678</v>
-      </c>
-      <c r="E7">
-        <v>1234567</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D8">
-        <v>12345678</v>
-      </c>
-      <c r="E8">
-        <v>12345678</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D9">
-        <v>12345678</v>
-      </c>
-      <c r="E9">
-        <v>12345678</v>
-      </c>
-      <c r="F9">
-        <v>8888</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>18428286666</v>
-      </c>
-      <c r="D10">
-        <v>12345678</v>
-      </c>
-      <c r="E10">
-        <v>12345678</v>
-      </c>
-      <c r="F10">
-        <v>6666</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/my_java/src/main/resources/register.xlsx
+++ b/my_java/src/main/resources/register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\auto_test\my_java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0A2A9-5FFA-42BA-A380-FD4DFD29136E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375EFBD-C62A-4096-99CA-59E6ECB19735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21852" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>手机号为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>{"phone_info":"", "pwd_info":"", "pwd_confirm_info":"", "pin_info":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone_info":"该账号已经注册", "pwd_info":"", "pwd_confirm_info":"", "pin_info":""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,6 +668,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13266668888</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6666</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
